--- a/Data/Processing/2024-02-02/LAURUSLABS.xlsx
+++ b/Data/Processing/2024-02-02/LAURUSLABS.xlsx
@@ -5222,7 +5222,7 @@
         <v>362.79</v>
       </c>
       <c r="E94">
-        <v>363.93</v>
+        <v>363.94</v>
       </c>
       <c r="F94">
         <v>364.68</v>
@@ -5234,7 +5234,7 @@
         <v>38</v>
       </c>
       <c r="I94">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="J94">
         <v>0.72</v>
@@ -5246,13 +5246,13 @@
         <v>0.55</v>
       </c>
       <c r="M94">
-        <v>0.3100000000000001</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="N94">
         <v>1.39</v>
       </c>
       <c r="O94">
-        <v>328.1406818181818</v>
+        <v>328.1409090909091</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>355.15</v>
       </c>
       <c r="F95">
-        <v>363.93</v>
+        <v>363.94</v>
       </c>
       <c r="G95">
         <v>2195587</v>
@@ -5293,7 +5293,7 @@
         <v>-3.5</v>
       </c>
       <c r="L95">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="M95">
         <v>0.5099999999999998</v>
@@ -5302,7 +5302,7 @@
         <v>3.52</v>
       </c>
       <c r="O95">
-        <v>329.2913636363637</v>
+        <v>329.2915909090909</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>2.42</v>
       </c>
       <c r="O96">
-        <v>330.3965909090909</v>
+        <v>330.3968181818182</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>4.52</v>
       </c>
       <c r="O97">
-        <v>331.8675</v>
+        <v>331.8677272727273</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>2.47</v>
       </c>
       <c r="O98">
-        <v>333.5061363636364</v>
+        <v>333.5063636363636</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>335.0431818181818</v>
+        <v>335.0434090909091</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>1.96</v>
       </c>
       <c r="O100">
-        <v>336.7586363636364</v>
+        <v>336.7588636363636</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>3.34</v>
       </c>
       <c r="O101">
-        <v>337.9038636363637</v>
+        <v>337.9040909090909</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>3.01</v>
       </c>
       <c r="O102">
-        <v>338.8</v>
+        <v>338.8002272727273</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>3.2</v>
       </c>
       <c r="O103">
-        <v>339.5825</v>
+        <v>339.5827272727273</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>4.31</v>
       </c>
       <c r="O104">
-        <v>340.7140909090909</v>
+        <v>340.7143181818182</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>3.67</v>
       </c>
       <c r="O105">
-        <v>341.86</v>
+        <v>341.8602272727273</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>2.92</v>
       </c>
       <c r="O106">
-        <v>342.5195454545455</v>
+        <v>342.5197727272728</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>1.52</v>
       </c>
       <c r="O107">
-        <v>343.0602272727273</v>
+        <v>343.0604545454545</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>2.79</v>
       </c>
       <c r="O108">
-        <v>343.5181818181818</v>
+        <v>343.5184090909091</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>3.39</v>
       </c>
       <c r="O109">
-        <v>344.0997727272727</v>
+        <v>344.1</v>
       </c>
       <c r="P109">
         <v>1</v>
@@ -6052,7 +6052,7 @@
         <v>2.02</v>
       </c>
       <c r="O110">
-        <v>345.0259090909091</v>
+        <v>345.0261363636363</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>2.37</v>
       </c>
       <c r="O111">
-        <v>345.9329545454545</v>
+        <v>345.9331818181818</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>2.06</v>
       </c>
       <c r="O112">
-        <v>346.7956818181818</v>
+        <v>346.7959090909091</v>
       </c>
       <c r="P112">
         <v>1</v>
@@ -6202,7 +6202,7 @@
         <v>2.28</v>
       </c>
       <c r="O113">
-        <v>347.6790909090909</v>
+        <v>347.6793181818182</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>2.29</v>
       </c>
       <c r="O114">
-        <v>348.5952272727272</v>
+        <v>348.5954545454545</v>
       </c>
       <c r="P114">
         <v>1</v>
@@ -6302,7 +6302,7 @@
         <v>2.1</v>
       </c>
       <c r="O115">
-        <v>349.4195454545455</v>
+        <v>349.4197727272727</v>
       </c>
       <c r="P115">
         <v>1</v>
@@ -6352,7 +6352,7 @@
         <v>1.63</v>
       </c>
       <c r="O116">
-        <v>350.248409090909</v>
+        <v>350.2486363636363</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -6402,7 +6402,7 @@
         <v>1.67</v>
       </c>
       <c r="O117">
-        <v>350.9840909090909</v>
+        <v>350.9843181818182</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>2.65</v>
       </c>
       <c r="O118">
-        <v>351.1281818181818</v>
+        <v>351.1284090909091</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>6.4</v>
       </c>
       <c r="O119">
-        <v>351.3661363636364</v>
+        <v>351.3663636363636</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>5.12</v>
       </c>
       <c r="O120">
-        <v>351.4331818181818</v>
+        <v>351.4334090909091</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>7.48</v>
       </c>
       <c r="O121">
-        <v>351.826590909091</v>
+        <v>351.8268181818182</v>
       </c>
       <c r="P121">
         <v>1</v>
@@ -6652,7 +6652,7 @@
         <v>1.98</v>
       </c>
       <c r="O122">
-        <v>352.4286363636364</v>
+        <v>352.4288636363636</v>
       </c>
       <c r="P122">
         <v>1</v>
@@ -6702,7 +6702,7 @@
         <v>3.31</v>
       </c>
       <c r="O123">
-        <v>353.1975</v>
+        <v>353.1977272727273</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>5.75</v>
       </c>
       <c r="O124">
-        <v>354.1918181818182</v>
+        <v>354.1920454545455</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>3.07</v>
       </c>
       <c r="O125">
-        <v>355.2404545454546</v>
+        <v>355.2406818181818</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>3.45</v>
       </c>
       <c r="O126">
-        <v>356.5670454545455</v>
+        <v>356.5672727272727</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>3.2</v>
       </c>
       <c r="O127">
-        <v>358.1486363636364</v>
+        <v>358.1488636363636</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>2.82</v>
       </c>
       <c r="O128">
-        <v>359.5431818181818</v>
+        <v>359.5434090909091</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>4.5</v>
       </c>
       <c r="O129">
-        <v>360.71</v>
+        <v>360.7102272727273</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>4.35</v>
       </c>
       <c r="O130">
-        <v>361.7927272727272</v>
+        <v>361.7929545454545</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>2.16</v>
       </c>
       <c r="O131">
-        <v>362.7304545454546</v>
+        <v>362.7306818181818</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>3.72</v>
       </c>
       <c r="O132">
-        <v>363.4140909090909</v>
+        <v>363.4143181818181</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>2.36</v>
       </c>
       <c r="O133">
-        <v>364.0456818181818</v>
+        <v>364.0459090909091</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>2.59</v>
       </c>
       <c r="O134">
-        <v>364.3768181818182</v>
+        <v>364.3770454545455</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>2.28</v>
       </c>
       <c r="O135">
-        <v>364.8484090909091</v>
+        <v>364.8486363636363</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>1.51</v>
       </c>
       <c r="O136">
-        <v>365.455</v>
+        <v>365.4552272727273</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>1.65</v>
       </c>
       <c r="O137">
-        <v>366.1286363636364</v>
+        <v>366.1288636363636</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>3.92</v>
       </c>
       <c r="O142">
-        <v>369.7606818181818</v>
+        <v>369.7606818181819</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -7752,7 +7752,7 @@
         <v>2.56</v>
       </c>
       <c r="O144">
-        <v>371.1825</v>
+        <v>371.1824999999999</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>2.51</v>
       </c>
       <c r="O158">
-        <v>384.8645454545455</v>
+        <v>384.8645454545454</v>
       </c>
       <c r="P158">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>2.26</v>
       </c>
       <c r="O166">
-        <v>393.0352272727274</v>
+        <v>393.0352272727272</v>
       </c>
       <c r="P166">
         <v>1</v>
@@ -9052,7 +9052,7 @@
         <v>1.87</v>
       </c>
       <c r="O170">
-        <v>394.3199999999999</v>
+        <v>394.3200000000001</v>
       </c>
       <c r="P170">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>2.32</v>
       </c>
       <c r="O204">
-        <v>379.3090909090909</v>
+        <v>379.309090909091</v>
       </c>
       <c r="P204">
         <v>1</v>
@@ -10902,7 +10902,7 @@
         <v>1.52</v>
       </c>
       <c r="O207">
-        <v>378.3313636363637</v>
+        <v>378.3313636363636</v>
       </c>
       <c r="P207">
         <v>1</v>
@@ -11602,7 +11602,7 @@
         <v>2.83</v>
       </c>
       <c r="O221">
-        <v>378.3577272727273</v>
+        <v>378.3577272727272</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>2.79</v>
       </c>
       <c r="O222">
-        <v>379.8386363636364</v>
+        <v>379.8386363636363</v>
       </c>
       <c r="P222">
         <v>0</v>
@@ -11959,7 +11959,7 @@
         <v>1.14</v>
       </c>
       <c r="O227">
-        <v>388.1670454545455</v>
+        <v>388.1670454545454</v>
       </c>
       <c r="P227">
         <v>0</v>
@@ -12708,7 +12708,7 @@
         <v>3.66</v>
       </c>
       <c r="O234">
-        <v>396.8386363636364</v>
+        <v>396.8386363636363</v>
       </c>
       <c r="P234">
         <v>0</v>
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="O239">
-        <v>401.6159090909092</v>
+        <v>401.615909090909</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -13614,7 +13614,7 @@
         <v>3.09</v>
       </c>
       <c r="O243">
-        <v>403.1454545454545</v>
+        <v>403.1454545454546</v>
       </c>
       <c r="P243">
         <v>0</v>
@@ -13721,7 +13721,7 @@
         <v>2.39</v>
       </c>
       <c r="O244">
-        <v>403.0897727272726</v>
+        <v>403.0897727272728</v>
       </c>
       <c r="P244">
         <v>0</v>
